--- a/documents/Project Verification Plan.xlsx
+++ b/documents/Project Verification Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>To be verified</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Passed?</t>
-  </si>
-  <si>
-    <t>TODO: add date</t>
-  </si>
-  <si>
-    <t>TODO: add name</t>
   </si>
   <si>
     <t>Yes if passed, No if failed</t>
@@ -58,9 +52,6 @@
 2. Friend node is available.
 3. Provisioning completed successfully for both Friend and LPN nodes
 4. Friend and LPN are powered on and LCD shows state TBD</t>
-  </si>
-  <si>
-    <t>Analog sensor implementation is able measure sensor data accurately</t>
   </si>
   <si>
     <t>Friendship timeout</t>
@@ -117,18 +108,65 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>1. Perform factory reset (hold PB0/1 and reset device) on both devices
+    <t>Analog sensor implementation is able measure sensor data accurately on timer</t>
+  </si>
+  <si>
+    <t>1. Device is powered up and has been provisioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Perform factory reset (hold PB0/1 and reset device) on both devices
 1a. Devices should no longer be provisioned
 2. Provision devices
-2a. LPN and Friend should provision correctly and create friendship
-2b. Status updates should continue as usual</t>
+2a. Devices should provision correctly and create friendship
+</t>
+  </si>
+  <si>
+    <t>TODO: 11/21</t>
+  </si>
+  <si>
+    <t>TODO: Victor Kronberg</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1. Device is powered up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Provision LPN device
+2. LPN should start reading ADC channels at pre-defined intervals (2 seconds for testing)
+</t>
+  </si>
+  <si>
+    <t>Scheduler performs two ADC samples at a pre-defined interval.  Both samples taken at each interval (PHASE 1)</t>
+  </si>
+  <si>
+    <t>Scheduler performs two ADC samples at a pre-defined interval.  Both samples taken at each interval (PHASE 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create friendship
+1a. LPN LCD updates to show status: "Publishing to Friends"
+1b. LPN should start reading from ADC channels at pre-defined intervals (2 seconds for testing)
+</t>
+  </si>
+  <si>
+    <t>TODO: 11/23</t>
+  </si>
+  <si>
+    <t>TODO: 11/26</t>
+  </si>
+  <si>
+    <t>TODO: 11/30</t>
+  </si>
+  <si>
+    <t>TODO:11/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,6 +175,24 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,13 +215,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,10 +513,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -488,145 +550,192 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Project Verification Plan.xlsx
+++ b/documents/Project Verification Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkronber\SimplicityStudio\v4_workspace\course-project-victorkronberg\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkronber\SimplicityStudio\v4_workspace\course-project-victorkronberg_update\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>To be verified</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Passed?</t>
-  </si>
-  <si>
-    <t>Yes if passed, No if failed</t>
   </si>
   <si>
     <t>Victor Kronberg</t>
@@ -63,24 +60,10 @@
 4. Friend and LPN are powered on and LCD shows state TBD</t>
   </si>
   <si>
-    <t>Device firmware update</t>
-  </si>
-  <si>
     <t>LPN power consumption</t>
   </si>
   <si>
-    <t>LPN to Friend range</t>
-  </si>
-  <si>
     <t>Factory reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Create friendship
-1a. LPN LCD updates to show status TBD
-1b. Friend LCD updates to show status TBD
-2. Move the Friend and LPN a distance TBD away from each other
-2a. Status should continue to update withut a friendship timeout
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. Create friendship
@@ -91,21 +74,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ccreate friendship
-1a. LPN LCD updates to show status TBD
-1b. Friend LCD updates to show status TBD
-2. Turn off Friend Node
-2a. LPN LCD updates to show status "Friendship terminated"
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Create friendship
 1a. LPN LCD updates to show status: "Publishing to Friends"
 1b. Friend LCD updates to show status: "Friendship data" and updates with sensor data
 </t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Analog sensor implementation is able measure sensor data accurately on timer</t>
@@ -156,17 +128,36 @@
     <t>TODO: 11/26</t>
   </si>
   <si>
-    <t>TODO: 11/30</t>
-  </si>
-  <si>
-    <t>TODO:11/23</t>
+    <t>Persistent Storage</t>
+  </si>
+  <si>
+    <t>Friendship re-establish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create friendship
+1a. LPN LCD updates to show status 
+1b. Friend LCD updates to show status TBD
+2. Turn off LPN Node
+2a. Friend LCD updates to show status "Friendship terminated"
+</t>
+  </si>
+  <si>
+    <t>1. Friendship established
+2. Turn off LPN
+3. Friend node LCD displays "No LPN" after timeout</t>
+  </si>
+  <si>
+    <t>1. Turn on LPN
+2. Within 10 seconds, friendship should re-establish
+2a. Friend Node displays "Friend"
+2b. LPN displays "LPN Established"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -186,11 +177,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -215,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,9 +211,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,7 +499,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -552,187 +535,177 @@
     </row>
     <row r="2" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Project Verification Plan.xlsx
+++ b/documents/Project Verification Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>To be verified</t>
   </si>
@@ -54,30 +54,10 @@
     <t>Friendship timeout</t>
   </si>
   <si>
-    <t>1. LPN node (device under test) is programmed and connected to soil moisture sensor and light sensor breakouts via ADC
-2. Friend node is available.
-3. Provisioning completed successfully for both Friend and LPN nodes
-4. Friend and LPN are powered on and LCD shows state TBD</t>
-  </si>
-  <si>
     <t>LPN power consumption</t>
   </si>
   <si>
     <t>Factory reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Create friendship
-1a. LPN LCD updates to show status: "Publishing to Friends"
-1b. Friend LCD updates to show status: "Friendship data" and updates with sensor data
-1c. LPN sleep/wake power consumption under TBD
-1d. LPN sleep/wake time TBD
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Create friendship
-1a. LPN LCD updates to show status: "Publishing to Friends"
-1b. Friend LCD updates to show status: "Friendship data" and updates with sensor data
-</t>
   </si>
   <si>
     <t>Analog sensor implementation is able measure sensor data accurately on timer</t>
@@ -114,12 +94,6 @@
   </si>
   <si>
     <t>Scheduler performs two ADC samples at a pre-defined interval.  Both samples taken at each interval (PHASE 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Create friendship
-1a. LPN LCD updates to show status: "Publishing to Friends"
-1b. LPN should start reading from ADC channels at pre-defined intervals (2 seconds for testing)
-</t>
   </si>
   <si>
     <t>TODO: 11/23</t>
@@ -151,6 +125,55 @@
 2. Within 10 seconds, friendship should re-establish
 2a. Friend Node displays "Friend"
 2b. LPN displays "LPN Established"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create friendship
+1a. LPN LCD updates to show status: "LPN Established"
+1b. Friend LCD updates to show status: "Friend" and updates with sensor data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create friendship
+1a. LPN LCD updates to show status: "LPN Established"
+1b. LPN should start reading from ADC channels at pre-defined intervals (5 seconds for testing)
+</t>
+  </si>
+  <si>
+    <t>1. LPN node (device under test) is programmed and connected to soil moisture sensor and light sensor breakouts via ADC
+2. Friend node is available.
+3. Provisioning completed successfully for both Friend and LPN nodes
+4. Friend and LPN are powered on and LCD shows state "Friend" and "LPN Established"</t>
+  </si>
+  <si>
+    <t>1. LPN node is programmed and connected to soil moisture sensor breakout via ADC
+2. Friend node (device under test) is available.
+3. Provisioning completed successfully for both Friend and LPN nodes
+4. Friend and LPN are powered on and LCD shows state "Friend" and "LPN Established"</t>
+  </si>
+  <si>
+    <t>1. LPN node is programmed and connected to soil moisture sensor and light sensor breakouts via ADC
+2. Friend node (device under test) is available.
+3. Provisioning completed successfully for both Friend and LPN nodes
+4. Friend and LPN are powered on and LCD shows state "Friend" and "LPN Established"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create friendship
+1a. LPN LCD updates to show status: "LPN Established"
+1b. Friend LCD updates to show status: "Friend" and updates with sensor data
+1c. LPN sleep/wake power consumption under 15uA/15mA
+1d. LPN sleep period 5 seconds for test
+</t>
+  </si>
+  <si>
+    <t>TODO: 12/1</t>
+  </si>
+  <si>
+    <t>1. LPN publishes 3 data points to Friend
+2. Friend receives these data points and stores them in persistent memory
+2a. Friend LCD displays "Data points: 3"
+3. Press PB1 on Friend to print data points to serial port and save data pointers
+4. Power cycle Friend and ensure that LCB comes back displaying "Data points: 3"
+5. Press PB1 on Friend to print stored data points to serial port</t>
   </si>
 </sst>
 </file>
@@ -498,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,94 +558,94 @@
     </row>
     <row r="2" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -633,47 +656,47 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -682,30 +705,40 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
